--- a/AAII_Financials/Quarterly/TYCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TYCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>TYCB</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,77 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>41912</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>41820</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>41729</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>41639</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41547</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41455</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
         <v>3500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3700</v>
       </c>
       <c r="I8" s="3">
         <v>3700</v>
@@ -742,8 +746,11 @@
       <c r="K8" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -771,8 +778,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +810,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +888,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +920,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +952,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +965,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>3400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,25 +1043,26 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1600</v>
       </c>
       <c r="I20" s="3">
         <v>-1600</v>
@@ -1037,10 +1071,13 @@
         <v>-1600</v>
       </c>
       <c r="K20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1053,23 +1090,26 @@
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1137,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>1900</v>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E23" s="3">
         <v>1900</v>
       </c>
       <c r="F23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>1200</v>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E26" s="3">
         <v>1200</v>
       </c>
       <c r="F26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1200</v>
       </c>
       <c r="I26" s="3">
         <v>1200</v>
       </c>
       <c r="J26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>1200</v>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E27" s="3">
         <v>1200</v>
       </c>
       <c r="F27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1200</v>
       </c>
       <c r="I27" s="3">
         <v>1200</v>
       </c>
       <c r="J27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,25 +1425,28 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1600</v>
       </c>
       <c r="I32" s="3">
         <v>1600</v>
@@ -1385,39 +1455,45 @@
         <v>1600</v>
       </c>
       <c r="K32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>1200</v>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E33" s="3">
         <v>1200</v>
       </c>
       <c r="F33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1200</v>
       </c>
       <c r="I33" s="3">
         <v>1200</v>
       </c>
       <c r="J33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1521,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>1200</v>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E35" s="3">
         <v>1200</v>
       </c>
       <c r="F35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1200</v>
       </c>
       <c r="I35" s="3">
         <v>1200</v>
       </c>
       <c r="J35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>41912</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>41820</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>41729</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>41639</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41547</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41455</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,66 +1620,73 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
         <v>71800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>50500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>36400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>38600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>39500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
         <v>32800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>31700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>32500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>45100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>58300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>30600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>32300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,8 +1714,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1746,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,8 +1778,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1708,8 +1810,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,42 +1842,48 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
         <v>5500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5700</v>
       </c>
       <c r="G48" s="3">
         <v>5700</v>
       </c>
       <c r="H48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I48" s="3">
         <v>5800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5900</v>
       </c>
       <c r="J48" s="3">
         <v>5900</v>
       </c>
       <c r="K48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L48" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>200</v>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E49" s="3">
         <v>200</v>
@@ -1790,13 +1901,16 @@
         <v>200</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1970,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2002,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2034,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
         <v>474500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>454000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>440100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>447300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>466300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>445700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>432700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>442900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2096,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1995,8 +2126,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,13 +2158,16 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2053,8 +2190,11 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2082,8 +2222,11 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,37 +2254,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>300</v>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
       </c>
       <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2382,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
         <v>394100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>374400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>361700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>369900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>386800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>367300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>355200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2556,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
         <v>69600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>68400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>67200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>66200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>68200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>67100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>65900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2684,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
         <v>80400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>79600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>78400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>77500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>79500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>78400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>77500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2748,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>41912</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>41820</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>41729</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>41639</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41547</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41455</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>1200</v>
+      <c r="D81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E81" s="3">
         <v>1200</v>
       </c>
       <c r="F81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1200</v>
       </c>
       <c r="I81" s="3">
         <v>1200</v>
       </c>
       <c r="J81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2833,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2649,8 +2848,8 @@
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="3">
-        <v>100</v>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -2664,8 +2863,11 @@
       <c r="K83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,8 +3023,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2823,23 +3040,26 @@
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
         <v>1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3071,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2865,23 +3086,26 @@
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3">
-        <v>-100</v>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3165,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2952,23 +3182,26 @@
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>8300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3339,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3110,23 +3356,26 @@
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
         <v>-19900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>19300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>12400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,8 +3403,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3168,19 +3420,22 @@
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
         <v>-19400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>21900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-18500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TYCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TYCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>TYCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,84 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>41912</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>41820</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>41729</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41547</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41455</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
         <v>3500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3700</v>
       </c>
       <c r="J8" s="3">
         <v>3700</v>
@@ -749,8 +753,11 @@
       <c r="L8" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -781,8 +788,11 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +823,11 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +840,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -859,8 +873,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,8 +908,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,8 +943,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -955,8 +978,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,72 +992,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
         <v>3400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,28 +1077,29 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1600</v>
       </c>
       <c r="J20" s="3">
         <v>-1600</v>
@@ -1074,10 +1108,13 @@
         <v>-1600</v>
       </c>
       <c r="L20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1093,23 +1130,26 @@
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1140,72 +1180,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="3">
-        <v>1900</v>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F23" s="3">
         <v>1900</v>
       </c>
       <c r="G23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1285,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="3">
-        <v>1200</v>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F26" s="3">
         <v>1200</v>
       </c>
       <c r="G26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1200</v>
       </c>
       <c r="J26" s="3">
         <v>1200</v>
       </c>
       <c r="K26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="3">
-        <v>1200</v>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F27" s="3">
         <v>1200</v>
       </c>
       <c r="G27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1200</v>
       </c>
       <c r="J27" s="3">
         <v>1200</v>
       </c>
       <c r="K27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1390,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1425,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1460,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,28 +1495,31 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1600</v>
       </c>
       <c r="J32" s="3">
         <v>1600</v>
@@ -1458,42 +1528,48 @@
         <v>1600</v>
       </c>
       <c r="L32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="3">
-        <v>1200</v>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F33" s="3">
         <v>1200</v>
       </c>
       <c r="G33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1200</v>
       </c>
       <c r="J33" s="3">
         <v>1200</v>
       </c>
       <c r="K33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1600,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="3">
-        <v>1200</v>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F35" s="3">
         <v>1200</v>
       </c>
       <c r="G35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1200</v>
       </c>
       <c r="J35" s="3">
         <v>1200</v>
       </c>
       <c r="K35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>41912</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>41820</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>41729</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41547</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41455</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1692,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,72 +1707,79 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
         <v>71800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>50500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>36400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>38600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>39500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
         <v>32800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>31700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>32500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>45100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>58300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>30600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>32300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1717,8 +1810,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1749,8 +1845,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1781,8 +1880,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1813,8 +1915,11 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1845,48 +1950,54 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
         <v>5500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5700</v>
       </c>
       <c r="H48" s="3">
         <v>5700</v>
       </c>
       <c r="I48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J48" s="3">
         <v>5800</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5900</v>
       </c>
       <c r="K48" s="3">
         <v>5900</v>
       </c>
       <c r="L48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="M48" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
-        <v>200</v>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -1904,13 +2015,16 @@
         <v>200</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2055,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,8 +2090,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2005,8 +2125,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,40 +2160,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
         <v>474500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>454000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>440100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>447300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>466300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>445700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>432700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>442900</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2212,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,8 +2227,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2129,8 +2260,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2161,16 +2295,19 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2193,8 +2330,11 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2225,8 +2365,11 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2257,40 +2400,46 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="3">
-        <v>300</v>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
       </c>
       <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3">
         <v>200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2470,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2505,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,40 +2540,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
         <v>394100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>374400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>361700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>369900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>386800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>367300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>355200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2592,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2625,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2660,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2695,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,40 +2730,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
         <v>69600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>68400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>67200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>66200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>68200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>67100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>65900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2800,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2835,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,40 +2870,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3">
         <v>80400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>79600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>78400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>77500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>79500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>78400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>77500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +2940,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>41912</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>41820</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>41729</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41547</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41455</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="3">
-        <v>1200</v>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F81" s="3">
         <v>1200</v>
       </c>
       <c r="G81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1200</v>
       </c>
       <c r="J81" s="3">
         <v>1200</v>
       </c>
       <c r="K81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,8 +3032,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2851,8 +3050,8 @@
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
-        <v>100</v>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -2866,8 +3065,11 @@
       <c r="L83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3100,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3135,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3170,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3205,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,8 +3240,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3043,23 +3260,26 @@
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,8 +3292,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3089,23 +3310,26 @@
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3">
-        <v>-100</v>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3360,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,8 +3395,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3185,23 +3415,26 @@
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>8300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3447,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3480,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3515,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3550,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,8 +3585,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3359,23 +3605,26 @@
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
         <v>-19900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>19300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>12400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3406,8 +3655,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3423,19 +3675,22 @@
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
         <v>-19400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>21900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TYCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TYCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>TYCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,75 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>41912</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>41820</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>41547</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>41455</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -732,32 +743,41 @@
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3">
         <v>3500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>3600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>3500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>3600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3700</v>
       </c>
       <c r="M8" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P8" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -791,8 +811,17 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +855,17 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +879,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,8 +917,17 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,8 +961,17 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,8 +1005,17 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,8 +1049,17 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,8 +1070,11 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1004,32 +1084,41 @@
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
+        <v>400</v>
+      </c>
+      <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1039,32 +1128,41 @@
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="3">
-        <v>3400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3300</v>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I18" s="3">
         <v>3400</v>
       </c>
       <c r="J18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K18" s="3">
         <v>3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N18" s="3">
         <v>3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,8 +1176,11 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1089,32 +1190,41 @@
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2200</v>
       </c>
       <c r="J20" s="3">
         <v>-1600</v>
       </c>
       <c r="K20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1133,23 +1243,32 @@
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1183,8 +1302,17 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1194,32 +1322,41 @@
       <c r="E23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
         <v>1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1229,32 +1366,41 @@
       <c r="E24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,8 +1434,17 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1299,32 +1454,41 @@
       <c r="E26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
         <v>1200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>800</v>
       </c>
       <c r="J26" s="3">
         <v>1200</v>
       </c>
       <c r="K26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L26" s="3">
+        <v>800</v>
+      </c>
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O26" s="3">
         <v>1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1334,32 +1498,41 @@
       <c r="E27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
         <v>1200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>800</v>
       </c>
       <c r="J27" s="3">
         <v>1200</v>
       </c>
       <c r="K27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L27" s="3">
+        <v>800</v>
+      </c>
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O27" s="3">
         <v>1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1566,17 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1428,8 +1610,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1654,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,8 +1698,17 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1509,32 +1718,41 @@
       <c r="E32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
         <v>1500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2200</v>
       </c>
       <c r="J32" s="3">
         <v>1600</v>
       </c>
       <c r="K32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1544,32 +1762,41 @@
       <c r="E33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
         <v>1200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>800</v>
       </c>
       <c r="J33" s="3">
         <v>1200</v>
       </c>
       <c r="K33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L33" s="3">
+        <v>800</v>
+      </c>
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O33" s="3">
         <v>1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,8 +1830,17 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1614,72 +1850,90 @@
       <c r="E35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
         <v>1200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>800</v>
       </c>
       <c r="J35" s="3">
         <v>1200</v>
       </c>
       <c r="K35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L35" s="3">
+        <v>800</v>
+      </c>
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O35" s="3">
         <v>1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>41912</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>41820</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>41547</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>41455</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1947,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,8 +1965,11 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1719,32 +1979,41 @@
       <c r="E41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
         <v>71800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>50500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>40300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>36400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>38600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>39500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>22600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1754,32 +2023,41 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>32800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="J42" s="3">
         <v>31700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="K42" s="3">
         <v>32500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>45100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>58300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>30600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>32300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1813,8 +2091,17 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1848,8 +2135,17 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1883,8 +2179,17 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1918,8 +2223,17 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1953,8 +2267,17 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1964,32 +2287,41 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>5500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>5600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>5700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>5700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>5800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>5900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>5900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1999,14 +2331,14 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
-        <v>200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>200</v>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
@@ -2018,13 +2350,22 @@
         <v>200</v>
       </c>
       <c r="L49" s="3">
+        <v>200</v>
+      </c>
+      <c r="M49" s="3">
+        <v>200</v>
+      </c>
+      <c r="N49" s="3">
+        <v>200</v>
+      </c>
+      <c r="O49" s="3">
         <v>100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2399,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,8 +2443,17 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2128,8 +2487,17 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,43 +2531,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
+      <c r="D54" s="3">
+        <v>839000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>751400</v>
       </c>
       <c r="F54" s="3">
+        <v>711800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>699800</v>
+      </c>
+      <c r="H54" s="3">
+        <v>644700</v>
+      </c>
+      <c r="I54" s="3">
         <v>474500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>454000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>440100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>447300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>466300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>445700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>432700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>442900</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2599,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,8 +2617,11 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2263,8 +2655,17 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2298,8 +2699,17 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2309,14 +2719,14 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2333,8 +2743,17 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2368,8 +2787,17 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2403,8 +2831,17 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2414,32 +2851,41 @@
       <c r="E62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2919,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2963,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,8 +3007,17 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2554,32 +3027,41 @@
       <c r="E66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
         <v>394100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>374400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>361700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>369900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>386800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>367300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>355200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +3075,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +3113,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +3157,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2698,8 +3201,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,8 +3245,17 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2744,32 +3265,41 @@
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>69600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>68400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>67200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>66200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>68200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>67100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>65900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +3333,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3377,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,31 +3421,40 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
+      <c r="D76" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>95700</v>
       </c>
       <c r="F76" s="3">
+        <v>94800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>94300</v>
+      </c>
+      <c r="H76" s="3">
+        <v>93200</v>
+      </c>
+      <c r="I76" s="3">
         <v>80400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>79600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>78400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>77500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>79500</v>
       </c>
       <c r="K76" s="3">
         <v>78400</v>
@@ -2906,10 +3463,19 @@
         <v>77500</v>
       </c>
       <c r="M76" s="3">
+        <v>79500</v>
+      </c>
+      <c r="N76" s="3">
+        <v>78400</v>
+      </c>
+      <c r="O76" s="3">
+        <v>77500</v>
+      </c>
+      <c r="P76" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,48 +3509,66 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>41912</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>41820</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>41547</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>41455</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2994,32 +3578,41 @@
       <c r="E81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
         <v>1200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>800</v>
       </c>
       <c r="J81" s="3">
         <v>1200</v>
       </c>
       <c r="K81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L81" s="3">
+        <v>800</v>
+      </c>
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O81" s="3">
         <v>1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,34 +3626,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -3068,8 +3664,17 @@
       <c r="M83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3708,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3752,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3796,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3840,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,43 +3884,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,34 +3952,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
@@ -3328,8 +3990,17 @@
       <c r="M91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +4034,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,43 +4078,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>8300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +4146,11 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3483,8 +4184,17 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +4228,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +4272,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,43 +4316,61 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-19900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>19300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>12400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-11500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3658,39 +4404,57 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-19400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>21900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>15300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-18500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TYCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TYCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>TYCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,79 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41912</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41820</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41547</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41455</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41364</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -752,20 +756,20 @@
       <c r="H8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3">
         <v>3500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3700</v>
       </c>
       <c r="N8" s="3">
         <v>3700</v>
@@ -776,8 +780,11 @@
       <c r="P8" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -820,8 +827,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,8 +874,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +895,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +940,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +987,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,8 +1034,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1081,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,8 +1099,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1093,32 +1120,35 @@
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1137,32 +1167,35 @@
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
         <v>3400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1212,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1199,20 +1233,20 @@
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1600</v>
       </c>
       <c r="N20" s="3">
         <v>-1600</v>
@@ -1221,10 +1255,13 @@
         <v>-1600</v>
       </c>
       <c r="P20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1252,23 +1289,26 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1311,8 +1351,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1331,32 +1374,35 @@
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="3">
-        <v>1900</v>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J23" s="3">
         <v>1900</v>
       </c>
       <c r="K23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1375,32 +1421,35 @@
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,8 +1492,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1463,32 +1515,35 @@
       <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="3">
-        <v>1200</v>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J26" s="3">
         <v>1200</v>
       </c>
       <c r="K26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1200</v>
       </c>
       <c r="N26" s="3">
         <v>1200</v>
       </c>
       <c r="O26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P26" s="3">
         <v>1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1507,32 +1562,35 @@
       <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="3">
-        <v>1200</v>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J27" s="3">
         <v>1200</v>
       </c>
       <c r="K27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1200</v>
       </c>
       <c r="N27" s="3">
         <v>1200</v>
       </c>
       <c r="O27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P27" s="3">
         <v>1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1633,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1680,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1774,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1727,20 +1797,20 @@
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1600</v>
       </c>
       <c r="N32" s="3">
         <v>1600</v>
@@ -1749,10 +1819,13 @@
         <v>1600</v>
       </c>
       <c r="P32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1771,32 +1844,35 @@
       <c r="H33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="3">
-        <v>1200</v>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J33" s="3">
         <v>1200</v>
       </c>
       <c r="K33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1200</v>
       </c>
       <c r="N33" s="3">
         <v>1200</v>
       </c>
       <c r="O33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P33" s="3">
         <v>1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,8 +1915,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1859,81 +1938,87 @@
       <c r="H35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="3">
-        <v>1200</v>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J35" s="3">
         <v>1200</v>
       </c>
       <c r="K35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1200</v>
       </c>
       <c r="N35" s="3">
         <v>1200</v>
       </c>
       <c r="O35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P35" s="3">
         <v>1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41912</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41820</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41547</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41455</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41364</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,8 +2054,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1988,32 +2075,35 @@
       <c r="H41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
         <v>71800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>50500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>40300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>36400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>38600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>39500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2032,32 +2122,35 @@
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>32800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>31700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>32500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>45100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>58300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>30600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>32300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2100,8 +2193,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,8 +2240,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2188,8 +2287,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2232,8 +2334,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,8 +2381,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2296,32 +2404,35 @@
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>5500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>5700</v>
       </c>
       <c r="L48" s="3">
         <v>5700</v>
       </c>
       <c r="M48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="N48" s="3">
         <v>5800</v>
-      </c>
-      <c r="N48" s="3">
-        <v>5900</v>
       </c>
       <c r="O48" s="3">
         <v>5900</v>
       </c>
       <c r="P48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2340,8 +2451,8 @@
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="3">
-        <v>200</v>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3">
         <v>200</v>
@@ -2359,13 +2470,16 @@
         <v>200</v>
       </c>
       <c r="O49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2569,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2496,8 +2616,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2663,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>914000</v>
+      </c>
+      <c r="E54" s="3">
         <v>839000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>751400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>711800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>699800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>644700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>474500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>454000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>440100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>447300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>466300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>445700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>432700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>442900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,8 +2750,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2664,8 +2795,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2708,8 +2842,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2728,8 +2865,8 @@
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -2752,8 +2889,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2796,8 +2936,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,8 +2983,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2860,32 +3006,35 @@
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="3">
-        <v>300</v>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
       </c>
       <c r="K62" s="3">
+        <v>300</v>
+      </c>
+      <c r="L62" s="3">
         <v>200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,8 +3171,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3036,32 +3194,35 @@
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
         <v>394100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>374400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>361700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>369900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>386800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>367300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>355200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,8 +3425,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3274,32 +3448,35 @@
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>69600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>68400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>67200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>66200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>68200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>67100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>65900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3613,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E76" s="3">
         <v>97100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>95700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>94800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>94300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>93200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>80400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>79600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>78400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>77500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>79500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>78400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>77500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,57 +3707,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41912</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41820</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41547</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41455</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41364</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3587,32 +3782,35 @@
       <c r="H81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I81" s="3">
-        <v>1200</v>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J81" s="3">
         <v>1200</v>
       </c>
       <c r="K81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>1200</v>
       </c>
       <c r="N81" s="3">
         <v>1200</v>
       </c>
       <c r="O81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P81" s="3">
         <v>1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3827,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3655,11 +3854,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -3673,8 +3872,11 @@
       <c r="P83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,8 +4107,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3919,26 +4136,29 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4175,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3981,26 +4202,29 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,8 +4314,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4113,26 +4343,29 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>8300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,8 +4568,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4351,26 +4597,29 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-19900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>19300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>12400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,8 +4662,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4439,22 +4691,25 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-19400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>21900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>15300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-18500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TYCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TYCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>TYCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,82 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41912</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41820</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41639</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41547</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41455</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41364</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,20 +762,20 @@
       <c r="I8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3">
         <v>3500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3600</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3700</v>
       </c>
       <c r="O8" s="3">
         <v>3700</v>
@@ -783,8 +786,11 @@
       <c r="Q8" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -830,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -943,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1084,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,8 +1125,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1123,32 +1149,35 @@
       <c r="I17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1170,32 +1199,35 @@
       <c r="I18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>3400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1236,20 +1269,20 @@
       <c r="I20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1600</v>
       </c>
       <c r="O20" s="3">
         <v>-1600</v>
@@ -1258,10 +1291,13 @@
         <v>-1600</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1292,23 +1328,26 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,8 +1393,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1377,32 +1419,35 @@
       <c r="I23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="3">
-        <v>1900</v>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K23" s="3">
         <v>1900</v>
       </c>
       <c r="L23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1424,32 +1469,35 @@
       <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,8 +1543,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1518,32 +1569,35 @@
       <c r="I26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="3">
-        <v>1200</v>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K26" s="3">
         <v>1200</v>
       </c>
       <c r="L26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M26" s="3">
         <v>1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1200</v>
       </c>
       <c r="O26" s="3">
         <v>1200</v>
       </c>
       <c r="P26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1565,32 +1619,35 @@
       <c r="I27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="3">
-        <v>1200</v>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K27" s="3">
         <v>1200</v>
       </c>
       <c r="L27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M27" s="3">
         <v>1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1200</v>
       </c>
       <c r="O27" s="3">
         <v>1200</v>
       </c>
       <c r="P27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1683,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1777,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1800,20 +1869,20 @@
       <c r="I32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1600</v>
       </c>
       <c r="O32" s="3">
         <v>1600</v>
@@ -1822,10 +1891,13 @@
         <v>1600</v>
       </c>
       <c r="Q32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1847,32 +1919,35 @@
       <c r="I33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="3">
-        <v>1200</v>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K33" s="3">
         <v>1200</v>
       </c>
       <c r="L33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1200</v>
       </c>
       <c r="O33" s="3">
         <v>1200</v>
       </c>
       <c r="P33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1918,8 +1993,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1941,84 +2019,90 @@
       <c r="I35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="3">
-        <v>1200</v>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K35" s="3">
         <v>1200</v>
       </c>
       <c r="L35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>1200</v>
       </c>
       <c r="O35" s="3">
         <v>1200</v>
       </c>
       <c r="P35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41912</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41820</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41639</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41547</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41455</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41364</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2055,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2078,32 +2164,35 @@
       <c r="I41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>71800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>40300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>36400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>38600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>39500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2125,32 +2214,35 @@
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>32800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>31700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>32500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>45100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>58300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>30600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>32300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2196,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2243,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2290,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2337,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2384,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2407,32 +2514,35 @@
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>5500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>5700</v>
       </c>
       <c r="M48" s="3">
         <v>5700</v>
       </c>
       <c r="N48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="O48" s="3">
         <v>5800</v>
-      </c>
-      <c r="O48" s="3">
-        <v>5900</v>
       </c>
       <c r="P48" s="3">
         <v>5900</v>
       </c>
       <c r="Q48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="R48" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2454,8 +2564,8 @@
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
-        <v>200</v>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
@@ -2473,13 +2583,16 @@
         <v>200</v>
       </c>
       <c r="P49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2619,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>904500</v>
+      </c>
+      <c r="E54" s="3">
         <v>914000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>839000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>751400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>711800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>699800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>644700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>474500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>454000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>440100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>447300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>466300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>445700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>432700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>442900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,31 +2880,32 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2798,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2845,28 +2978,31 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -2892,8 +3028,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2939,8 +3078,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2986,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3009,32 +3154,35 @@
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J62" s="3">
-        <v>300</v>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
       </c>
       <c r="L62" s="3">
+        <v>300</v>
+      </c>
+      <c r="M62" s="3">
         <v>200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,8 +3328,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3197,32 +3354,35 @@
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>394100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>374400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>361700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>369900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>386800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>367300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>355200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3381,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,8 +3598,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3451,32 +3624,35 @@
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>69600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>68400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>67200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>66200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>68200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>67100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>65900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E76" s="3">
         <v>98800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>97100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>95700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>94800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>94300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>93200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>80400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>79600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>78400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>77500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>79500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>78400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>77500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,60 +3898,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41912</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41820</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41639</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41547</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41455</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41364</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3785,32 +3979,35 @@
       <c r="I81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J81" s="3">
-        <v>1200</v>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K81" s="3">
         <v>1200</v>
       </c>
       <c r="L81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M81" s="3">
         <v>1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>1200</v>
       </c>
       <c r="O81" s="3">
         <v>1200</v>
       </c>
       <c r="P81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3857,11 +4055,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
-        <v>100</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -3875,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4139,26 +4355,29 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4205,26 +4425,29 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4346,26 +4575,29 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>8300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4430,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4600,26 +4845,29 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-19900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>19300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>12400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4665,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4694,22 +4945,25 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-19400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>21900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>15300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-18500</v>
       </c>
     </row>
